--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV001-020 - Setup Bank Rekening Investasi - Pasar Uang Tambah, Ubah, View Detil & Hapus Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV001-020 - Setup Bank Rekening Investasi - Pasar Uang Tambah, Ubah, View Detil & Hapus Data.xlsx
@@ -100,28 +100,6 @@
     <t>TEXT10</t>
   </si>
   <si>
-    <t>View :
-1. Klik icon Lihat Detail pada baris yang dituju</t>
-  </si>
-  <si>
-    <t>Tambah :
-1. Akses menu setup
-2. Klik tombol tambah
-3. Masukkan data
-4. Klik tombol Simpan</t>
-  </si>
-  <si>
-    <t>Ubah :
-1. Klik icon Ubah pada baris yang dituju
-2. Sesuaikan data yang ingin diubah
-3. Klik Simpan</t>
-  </si>
-  <si>
-    <t>Hapus :
-1. Klik icon Hapus pada baris yang dituju
-2. Klik tombol Ya, yakin!</t>
-  </si>
-  <si>
     <t>INV001-020</t>
   </si>
   <si>
@@ -132,6 +110,18 @@
   </si>
   <si>
     <t>Normal - Investasi - Pasar Uang</t>
+  </si>
+  <si>
+    <t>Tambah Setup Bank Rekening</t>
+  </si>
+  <si>
+    <t>View Setup Bank Rekening</t>
+  </si>
+  <si>
+    <t>Ubah Setup Bank Rekening</t>
+  </si>
+  <si>
+    <t>Hapus Setup Bank Rekening</t>
   </si>
 </sst>
 </file>
@@ -527,7 +517,7 @@
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,18 +609,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>22</v>
@@ -645,10 +635,10 @@
         <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="5"/>
@@ -662,18 +652,18 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
     </row>
-    <row r="3" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>24</v>
@@ -688,10 +678,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="5"/>
@@ -704,18 +694,18 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>23</v>
@@ -730,10 +720,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
@@ -747,18 +737,18 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>25</v>
@@ -773,10 +763,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="5"/>
